--- a/data/topic_model_data/topic_keywords_8-4.xlsx
+++ b/data/topic_model_data/topic_keywords_8-4.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigelee/Desktop/summer2022/stanford/research/ukraine-media-CSLI/data/topic_model_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF07012-23DC-9A41-8DC6-90198C88814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>TopicID</t>
   </si>
@@ -65,13 +71,58 @@
   </si>
   <si>
     <t>peoples donetsk luhansk lpr dpr republics peoples republic republic luhansk peoples shelling</t>
+  </si>
+  <si>
+    <t>Economy &amp; Sanctions</t>
+  </si>
+  <si>
+    <t>Russian Politics</t>
+  </si>
+  <si>
+    <t>Dialogue of Diplomacy</t>
+  </si>
+  <si>
+    <t>Ukrainian Sovereignty</t>
+  </si>
+  <si>
+    <t>Ukrainian Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATO </t>
+  </si>
+  <si>
+    <t>European Energy</t>
+  </si>
+  <si>
+    <t>US Relations</t>
+  </si>
+  <si>
+    <t>Blinken/Lavrov</t>
+  </si>
+  <si>
+    <t>Truss/Lavrov</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Military Tension</t>
+  </si>
+  <si>
+    <t>Russian Denial of Accusations</t>
+  </si>
+  <si>
+    <t>Separatist Regions</t>
+  </si>
+  <si>
+    <t>2014 Donbass War</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,10 +174,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +329,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,184 +522,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="400" workbookViewId="0">
+      <selection activeCell="D16" sqref="C2:D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="50.1640625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
